--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Sample.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Sample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -228,6 +228,42 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>extraction protocol</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0000490</t>
+  </si>
+  <si>
+    <t>RNA_Extraction.txt</t>
+  </si>
+  <si>
+    <t>Zea mays</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_4577</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0025034</t>
+  </si>
+  <si>
+    <t>total RNA</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0004964</t>
   </si>
 </sst>
 </file>
@@ -910,43 +946,43 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
         <v>71</v>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Sample.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Sample.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -209,10 +209,10 @@
     <t>Characteristic [Tissue]</t>
   </si>
   <si>
-    <t>Term Source REF (NCIT:C12801)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C12801)</t>
+    <t>Term Source REF (DPBO:0000112)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000112)</t>
   </si>
   <si>
     <t>Characteristic [Molecule]</t>
@@ -236,7 +236,7 @@
     <t>EFO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0000490</t>
+    <t>https://bioregistry.io/EFO:0000490</t>
   </si>
   <si>
     <t>RNA_Extraction.txt</t>
@@ -257,13 +257,13 @@
     <t>PO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0025034</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0025034</t>
   </si>
   <si>
     <t>total RNA</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0004964</t>
+    <t>https://bioregistry.io/EFO:0004964</t>
   </si>
 </sst>
 </file>
@@ -347,8 +347,8 @@
     <tableColumn id="7" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
     <tableColumn id="8" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
     <tableColumn id="9" name="Characteristic [Tissue]" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Source REF (NCIT:C12801)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Accession Number (NCIT:C12801)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Source REF (DPBO:0000112)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Accession Number (DPBO:0000112)" totalsRowFunction="none"/>
     <tableColumn id="12" name="Characteristic [Molecule]" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Source REF (NCIT:C63816)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Term Accession Number (NCIT:C63816)" totalsRowFunction="none"/>
